--- a/2DIsing_criticalexponents/input.xlsx
+++ b/2DIsing_criticalexponents/input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My files\Project course\presentation\after mid sem_week 1\beta 1\final\2DIsing_criticalexponents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prateek Verma\Documents\GitHub\2d_ising_simulation\2DIsing_criticalexponents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,7 +427,7 @@
     <col min="11" max="11" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -475,7 +475,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>10000000</v>
+        <v>100</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -493,11 +493,11 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
